--- a/biology/Botanique/Eucalyptus_parvula/Eucalyptus_parvula.xlsx
+++ b/biology/Botanique/Eucalyptus_parvula/Eucalyptus_parvula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eucalyptus parvula, appelé communément gommier à petites feuilles[2], est une espèce du genre Eucalyptus, de la famille des Myrtaceae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eucalyptus parvula, appelé communément gommier à petites feuilles, est une espèce du genre Eucalyptus, de la famille des Myrtaceae.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eucalyptus parvula est un arbre qui peut atteindre 12 mètres de haut[2] et un étalement de 8 m[3]. L'écorce est, sur le tronc inférieur, brun rougeâtre, fibreuse-squameuse ou en plaques puis lisse au-dessus, grise ou verte, formant de longs rubans[4].
-Les feuilles juvéniles sont opposées, elliptiques à obovales à larges-lancéolées, vert brillant[4] tandis que les feuilles adultes sont étroites, vert-olive, alternes, et lancéolées, parfois un peu en forme de faucille[3]. Elles mesurent de 4 à 7 cm de long et de 0.6 à 1 cm de large[4].
-L'infloraison va jusqu'à 7 fleurs. Les fleurs sont crème, souvent automnales ou hivernales[3]. Le pédoncule mesure de 4 à 7 mm de long. Les bourgeons sont sessiles, ovoïdes, mesurent de 3 à 7 mm de long et de 2 à 3 mm de diamètre. Le calyptre est conique, plus court et aussi large que l'hypanthium[4].
-Le fruit est cylindrique, conique ou ovoïde, de 3 à 4 mm de long et de diamètre[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eucalyptus parvula est un arbre qui peut atteindre 12 mètres de haut et un étalement de 8 m. L'écorce est, sur le tronc inférieur, brun rougeâtre, fibreuse-squameuse ou en plaques puis lisse au-dessus, grise ou verte, formant de longs rubans.
+Les feuilles juvéniles sont opposées, elliptiques à obovales à larges-lancéolées, vert brillant tandis que les feuilles adultes sont étroites, vert-olive, alternes, et lancéolées, parfois un peu en forme de faucille. Elles mesurent de 4 à 7 cm de long et de 0.6 à 1 cm de large.
+L'infloraison va jusqu'à 7 fleurs. Les fleurs sont crème, souvent automnales ou hivernales. Le pédoncule mesure de 4 à 7 mm de long. Les bourgeons sont sessiles, ovoïdes, mesurent de 3 à 7 mm de long et de 2 à 3 mm de diamètre. Le calyptre est conique, plus court et aussi large que l'hypanthium.
+Le fruit est cylindrique, conique ou ovoïde, de 3 à 4 mm de long et de diamètre.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eucalyptus parvula se trouve dans la Nouvelle-Galles du Sud de Countegany à Kybean[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eucalyptus parvula se trouve dans la Nouvelle-Galles du Sud de Countegany à Kybean.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eucalyptus parvula est éligible à une inscription en tant qu'espèce vulnérable en vertu de l'Environment Protection and Biodiversity Conservation Act 1999[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eucalyptus parvula est éligible à une inscription en tant qu'espèce vulnérable en vertu de l'Environment Protection and Biodiversity Conservation Act 1999.
 </t>
         </is>
       </c>
@@ -607,10 +625,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eucalyptus parvula est pourtant une espèce présente dans les jardineries à partir d'un cultivar issu d'un arbre en Europe en 1828[6].
-Le feuillage de cet eucalyptus est très utilisé en fleuristerie pour la confection de bouquets[6],[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eucalyptus parvula est pourtant une espèce présente dans les jardineries à partir d'un cultivar issu d'un arbre en Europe en 1828.
+Le feuillage de cet eucalyptus est très utilisé en fleuristerie pour la confection de bouquets,.
 </t>
         </is>
       </c>
